--- a/color_list.xlsx
+++ b/color_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snail/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuwen/Desktop/Mike/工作文件/Miner_c07_d1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1540" yWindow="460" windowWidth="32060" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="对照清单" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="查询" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">查询!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$94</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="620">
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
@@ -2410,18 +2410,12 @@
     <t>bg_color_1</t>
   </si>
   <si>
-    <t>bg_color_2</t>
-  </si>
-  <si>
     <t>bg_color_3</t>
   </si>
   <si>
     <t>bg_color_4</t>
   </si>
   <si>
-    <t>bg_color_5</t>
-  </si>
-  <si>
     <t>bg_color_6</t>
   </si>
   <si>
@@ -2494,18 +2488,12 @@
     <t>bg_color_29</t>
   </si>
   <si>
-    <t>bg_color_30</t>
-  </si>
-  <si>
     <t>bg_color_31</t>
   </si>
   <si>
     <t>bg_color_32</t>
   </si>
   <si>
-    <t>bg_color_33</t>
-  </si>
-  <si>
     <t>bg_color_34</t>
   </si>
   <si>
@@ -2551,9 +2539,6 @@
     <t>border_color_10</t>
   </si>
   <si>
-    <t>border_color_11</t>
-  </si>
-  <si>
     <t>border_color_12</t>
   </si>
   <si>
@@ -2566,18 +2551,12 @@
     <t>icon_color_1</t>
   </si>
   <si>
-    <t>icon_color_2</t>
-  </si>
-  <si>
     <t>icon_color_3</t>
   </si>
   <si>
     <t>icon_color_4</t>
   </si>
   <si>
-    <t>icon_color_5</t>
-  </si>
-  <si>
     <t>icon_color_6</t>
   </si>
   <si>
@@ -2596,420 +2575,487 @@
     <t>icon_color_11</t>
   </si>
   <si>
+    <t>icon_color_13</t>
+  </si>
+  <si>
+    <t>icon_color_15</t>
+  </si>
+  <si>
+    <t>icon_color_16</t>
+  </si>
+  <si>
+    <t>icon_color_18</t>
+  </si>
+  <si>
+    <t>font_color_1</t>
+  </si>
+  <si>
+    <t>font_color_3</t>
+  </si>
+  <si>
+    <t>font_color_4</t>
+  </si>
+  <si>
+    <t>font_color_6</t>
+  </si>
+  <si>
+    <t>font_color_7</t>
+  </si>
+  <si>
+    <t>font_color_9</t>
+  </si>
+  <si>
+    <t>font_color_10</t>
+  </si>
+  <si>
+    <t>font_color_11</t>
+  </si>
+  <si>
+    <t>font_color_12</t>
+  </si>
+  <si>
+    <t>font_color_13</t>
+  </si>
+  <si>
+    <t>font_color_14</t>
+  </si>
+  <si>
+    <t>font_color_15</t>
+  </si>
+  <si>
+    <t>font_color_17</t>
+  </si>
+  <si>
+    <t>font_color_18</t>
+  </si>
+  <si>
+    <t>font_color_20</t>
+  </si>
+  <si>
+    <t>cp_ico_button1_2</t>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tab1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #F0F0F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_02   hbh_color_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F0F0F0   #EDEDED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,240,240,1   237,237,237,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>237,237,237,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">box-shadow: 2px 0px 6px 0px #000 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">box-shadow: -2px 0px 6px 0px #000 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tab1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tab1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 0px #999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 2px #EDEDED inset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_link1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,179,179,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 2px #11744E inset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbh_color_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_color_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_color_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_font_table1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_link2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59,252,178,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tree3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_tree4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_table5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>248,248,248,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss_color_63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42,42,42,1;45,45,45,1</t>
+  </si>
+  <si>
+    <t>240,240,240,1;237,237,237,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box-shadow: 2px 0px 6px 0px #000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">box-shadow: -2px 0px 6px 0px #000 </t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 0px #11744E;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #000 inset</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 6px 0px #FFFFFF inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #001 inset</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 6px 0px #FFFFFF inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #002 inset</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 6px 0px #3BFCB2 inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #003 inset</t>
+  </si>
+  <si>
+    <t>box-shadow: -2px 0px 6px 0px #000</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 2px #EDEDED inset</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 3px #EDEDED inset</t>
+  </si>
+  <si>
+    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 2px #11744E inset</t>
+  </si>
+  <si>
+    <t>RGBA_dark</t>
+  </si>
+  <si>
+    <t>RGBA_light</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>class2</t>
+  </si>
+  <si>
+    <t>class1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>style_dark</t>
+  </si>
+  <si>
+    <t>style_light</t>
+  </si>
+  <si>
+    <t>工作区底层</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作区底层颜色</t>
+    <rPh sb="0" eb="1">
+      <t>gong zuo qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di ceng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台2</t>
+    <rPh sb="0" eb="1">
+      <t>kong zhi tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_control2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台下底图</t>
+    <rPh sb="0" eb="1">
+      <t>kong zhi t</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>icon_color_12</t>
-  </si>
-  <si>
-    <t>icon_color_13</t>
-  </si>
-  <si>
-    <t>icon_color_14</t>
-  </si>
-  <si>
-    <t>icon_color_15</t>
-  </si>
-  <si>
-    <t>icon_color_16</t>
-  </si>
-  <si>
-    <t>icon_color_17</t>
-  </si>
-  <si>
-    <t>icon_color_18</t>
-  </si>
-  <si>
-    <t>font_color_1</t>
-  </si>
-  <si>
-    <t>font_color_2</t>
-  </si>
-  <si>
-    <t>font_color_3</t>
-  </si>
-  <si>
-    <t>font_color_4</t>
-  </si>
-  <si>
-    <t>font_color_5</t>
-  </si>
-  <si>
-    <t>font_color_6</t>
-  </si>
-  <si>
-    <t>font_color_7</t>
-  </si>
-  <si>
-    <t>font_color_8</t>
-  </si>
-  <si>
-    <t>font_color_9</t>
-  </si>
-  <si>
-    <t>font_color_10</t>
-  </si>
-  <si>
-    <t>font_color_11</t>
-  </si>
-  <si>
-    <t>font_color_12</t>
-  </si>
-  <si>
-    <t>font_color_13</t>
-  </si>
-  <si>
-    <t>font_color_14</t>
-  </si>
-  <si>
-    <t>font_color_15</t>
-  </si>
-  <si>
-    <t>font_color_16</t>
-  </si>
-  <si>
-    <t>font_color_17</t>
-  </si>
-  <si>
-    <t>font_color_18</t>
-  </si>
-  <si>
-    <t>font_color_19</t>
-  </si>
-  <si>
-    <t>font_color_20</t>
-  </si>
-  <si>
-    <t>cp_ico_button1_2</t>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tab1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> #F0F0F0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_02   hbh_color_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#F0F0F0   #EDEDED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240,240,240,1   237,237,237,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>237,237,237,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">box-shadow: 2px 0px 6px 0px #000 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">box-shadow: -2px 0px 6px 0px #000 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tab1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tab1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 0px #999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 2px #EDEDED inset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_link1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,179,179,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 2px #11744E inset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbh_color_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_color_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_color_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_font_table1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_link2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59,252,178,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tree3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tree2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_tree4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cp_bg_table5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>248,248,248,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tss_color_63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42,42,42,1;45,45,45,1</t>
-  </si>
-  <si>
-    <t>240,240,240,1;237,237,237,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box-shadow: 2px 0px 6px 0px #000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">box-shadow: -2px 0px 6px 0px #000 </t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 0px #11744E;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #000 inset</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 6px 0px #FFFFFF inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #001 inset</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 6px 0px #FFFFFF inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #002 inset</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 6px 0px #3BFCB2 inset;box-shadow: 0px 0px 4px 0px #000;box-shadow: 0px 0px 1px 2px #003 inset</t>
-  </si>
-  <si>
-    <t>box-shadow: -2px 0px 6px 0px #000</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 2px #EDEDED inset</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 3px #EDEDED inset</t>
-  </si>
-  <si>
-    <t>box-shadow: 0px 0px 4px 0px #999;box-shadow: 0px 0px 4px 2px #11744E inset</t>
-  </si>
-  <si>
-    <t>RGBA_dark</t>
-  </si>
-  <si>
-    <t>RGBA_light</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>class2</t>
-  </si>
-  <si>
-    <t>class1</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>style_dark</t>
-  </si>
-  <si>
-    <t>style_light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bd_cut2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border_color_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法链接线悬停</t>
+    <rPh sb="0" eb="1">
+      <t>suan fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bd_line3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#D0021B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3022,6 +3068,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3205,7 +3252,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3249,22 +3296,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3282,11 +3323,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3561,10 +3614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3586,7 +3639,7 @@
     <col min="15" max="16384" width="21" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -3594,16 +3647,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>289</v>
@@ -3612,29 +3665,29 @@
         <v>97</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>396</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="N1" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -3663,8 +3716,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="10" t="s">
         <v>405</v>
       </c>
@@ -3672,7 +3725,7 @@
         <v>415</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>438</v>
@@ -3691,8 +3744,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="10" t="s">
         <v>406</v>
       </c>
@@ -3700,7 +3753,7 @@
         <v>414</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>442</v>
@@ -3719,8 +3772,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3730,7 +3783,7 @@
         <v>413</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>441</v>
@@ -3749,8 +3802,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="10" t="s">
         <v>407</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>418</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>439</v>
@@ -3777,8 +3830,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="10" t="s">
         <v>294</v>
       </c>
@@ -3786,7 +3839,7 @@
         <v>417</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>151</v>
@@ -3805,8 +3858,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="10" t="s">
         <v>355</v>
       </c>
@@ -3814,7 +3867,7 @@
         <v>420</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>153</v>
@@ -3833,8 +3886,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3844,7 +3897,7 @@
         <v>421</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>440</v>
@@ -3863,8 +3916,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="10" t="s">
         <v>342</v>
       </c>
@@ -3872,7 +3925,7 @@
         <v>416</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>277</v>
@@ -3891,8 +3944,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="10" t="s">
         <v>344</v>
       </c>
@@ -3900,7 +3953,7 @@
         <v>422</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>437</v>
@@ -3919,8 +3972,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="10" t="s">
         <v>345</v>
       </c>
@@ -3928,7 +3981,7 @@
         <v>423</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
@@ -3947,8 +4000,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="10" t="s">
         <v>346</v>
       </c>
@@ -3956,7 +4009,7 @@
         <v>424</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>11</v>
@@ -3975,8 +4028,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3986,7 +4039,7 @@
         <v>425</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>93</v>
@@ -4011,8 +4064,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="10" t="s">
         <v>361</v>
       </c>
@@ -4020,7 +4073,7 @@
         <v>426</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>94</v>
@@ -4039,7 +4092,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="10" t="s">
         <v>136</v>
       </c>
@@ -4050,7 +4103,7 @@
         <v>427</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>138</v>
@@ -4068,526 +4121,512 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:14" s="14" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E18" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="F21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="I27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="K27" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="H31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="K32" s="10" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
-        <v>49</v>
-      </c>
+    <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>292</v>
@@ -4601,607 +4640,620 @@
       <c r="J33" s="10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="K33" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="E36" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="10" t="s">
+    <row r="37" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="E37" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I37" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J37" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K37" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="M37" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14" t="s">
+    <row r="38" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="F36" s="10" t="s">
+      <c r="E38" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="10" t="s">
+    <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="F37" s="10" t="s">
+      <c r="E39" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>121</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>122</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="K40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="10" t="s">
+        <v>286</v>
+      </c>
       <c r="C41" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="10" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E45" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="F50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="10" t="s">
+      <c r="I50" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="12" t="s">
+    </row>
+    <row r="51" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="10" t="s">
+      <c r="F51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C52" s="10" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N52" s="11"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J53" s="10" t="s">
         <v>108</v>
@@ -5209,451 +5261,454 @@
       <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="10" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="10" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>533</v>
+        <v>247</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>293</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C56" s="10" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14" t="s">
-        <v>139</v>
+      <c r="A57" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="10" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>166</v>
+        <v>518</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G59" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H62" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="10" t="s">
+    <row r="63" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="E63" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14" t="s">
+    <row r="64" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="F61" s="10" t="s">
+      <c r="E64" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I64" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J64" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="10" t="s">
+    <row r="65" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="E65" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="10" t="s">
+    <row r="66" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="E66" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H66" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="10" t="s">
+    <row r="67" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="F64" s="10" t="s">
+      <c r="E67" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G67" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H67" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I67" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J67" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="10" t="s">
+    <row r="68" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="F65" s="10" t="s">
+      <c r="E68" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G68" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H68" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I68" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J68" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14" t="s">
+    <row r="69" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>365</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>109</v>
@@ -5662,575 +5717,575 @@
         <v>111</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+    <row r="70" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D71" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="F70" s="10" t="s">
+      <c r="E73" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H73" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I73" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J73" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="10" t="s">
+    <row r="74" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="F71" s="10" t="s">
+      <c r="E74" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I74" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J74" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+    <row r="75" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B75" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="E75" s="12" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="10" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="C78" s="10" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="10" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="10" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J81" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J84" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="10" t="s">
+    <row r="85" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="F82" s="10" t="s">
+      <c r="E85" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I85" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J85" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="L82" s="10" t="s">
+      <c r="L85" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="10" t="s">
+    <row r="86" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="F83" s="10" t="s">
+      <c r="E86" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H86" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I83" s="10" t="s">
+      <c r="I86" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J86" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="10" t="s">
+    <row r="87" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="E87" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H87" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I84" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J84" s="10" t="s">
+      <c r="J87" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="10" t="s">
+    <row r="88" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="E88" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I85" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14" t="s">
+    <row r="89" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I86" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>365</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>109</v>
@@ -6239,106 +6294,192 @@
         <v>111</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="10" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J90" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I91" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="10" t="s">
+      <c r="J91" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D94" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="E94" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H94" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I94" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="J94" s="10" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J91">
+  <autoFilter ref="A1:J94">
     <sortState ref="A2:I97">
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="A2:A39"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="A54:A71"/>
-    <mergeCell ref="A72:A91"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A2:A41"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A74"/>
+    <mergeCell ref="A75:A94"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6351,7 +6492,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.83203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6360,22 +6501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
@@ -6456,13 +6597,13 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
@@ -6636,7 +6777,7 @@
     </row>
     <row r="20" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>190</v>
@@ -6822,13 +6963,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -7297,49 +7438,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="23"/>
     </row>
     <row r="2" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -7399,10 +7540,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7421,10 +7562,10 @@
         <v>76</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -7445,8 +7586,8 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -7468,8 +7609,8 @@
       <c r="I5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="3" t="s">
         <v>21</v>
       </c>
@@ -7493,8 +7634,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
@@ -7511,8 +7652,8 @@
         <v>78</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
@@ -7531,8 +7672,8 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
@@ -7551,8 +7692,8 @@
       <c r="I7" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="3" t="s">
         <v>23</v>
       </c>
@@ -7573,8 +7714,8 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="16" t="s">
         <v>281</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7596,8 +7737,8 @@
         <v>80</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="16" t="s">
         <v>281</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -7621,8 +7762,8 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>283</v>
       </c>
@@ -7642,8 +7783,8 @@
         <v>81</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3" t="s">
         <v>283</v>
       </c>
@@ -7665,8 +7806,8 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>284</v>
       </c>
@@ -7686,8 +7827,8 @@
         <v>82</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="3" t="s">
         <v>284</v>
       </c>
@@ -7709,7 +7850,7 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>286</v>
       </c>
@@ -7729,7 +7870,7 @@
         <v>285</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="3" t="s">
         <v>286</v>
       </c>
@@ -7751,8 +7892,8 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -7771,8 +7912,8 @@
         <v>144</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -7793,8 +7934,8 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>133</v>
       </c>
@@ -7811,8 +7952,8 @@
         <v>146</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="3" t="s">
         <v>133</v>
       </c>
@@ -7831,8 +7972,8 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
         <v>134</v>
       </c>
@@ -7849,8 +7990,8 @@
         <v>147</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="14"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="3" t="s">
         <v>134</v>
       </c>
@@ -7869,8 +8010,8 @@
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>135</v>
       </c>
@@ -7887,8 +8028,8 @@
         <v>148</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="3" t="s">
         <v>135</v>
       </c>
@@ -7907,8 +8048,8 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7927,8 +8068,8 @@
         <v>149</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="14" t="s">
+      <c r="J16" s="24"/>
+      <c r="K16" s="16" t="s">
         <v>139</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -7949,8 +8090,8 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
         <v>141</v>
       </c>
@@ -7967,8 +8108,8 @@
         <v>145</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="14"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="3" t="s">
         <v>141</v>
       </c>
@@ -7987,8 +8128,8 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>142</v>
       </c>
@@ -8005,8 +8146,8 @@
         <v>150</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="3" t="s">
         <v>142</v>
       </c>
@@ -8025,8 +8166,8 @@
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
         <v>143</v>
       </c>
@@ -8043,8 +8184,8 @@
         <v>151</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="3" t="s">
         <v>143</v>
       </c>
@@ -8063,8 +8204,8 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
         <v>152</v>
       </c>
@@ -8081,8 +8222,8 @@
         <v>153</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="3" t="s">
         <v>152</v>
       </c>
@@ -8101,8 +8242,8 @@
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -8121,8 +8262,8 @@
         <v>83</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="14" t="s">
+      <c r="J21" s="24"/>
+      <c r="K21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -8143,8 +8284,8 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
@@ -8161,8 +8302,8 @@
         <v>84</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="14"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="3" t="s">
         <v>25</v>
       </c>
@@ -8181,8 +8322,8 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
@@ -8199,8 +8340,8 @@
         <v>85</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="3" t="s">
         <v>26</v>
       </c>
@@ -8219,8 +8360,8 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
@@ -8237,8 +8378,8 @@
         <v>86</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="14"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="3" t="s">
         <v>27</v>
       </c>
@@ -8257,8 +8398,8 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -8277,8 +8418,8 @@
         <v>87</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="14" t="s">
+      <c r="J25" s="24"/>
+      <c r="K25" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -8299,8 +8440,8 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
@@ -8319,11 +8460,11 @@
       <c r="H26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="14"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="3" t="s">
         <v>29</v>
       </c>
@@ -8345,8 +8486,8 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -8367,9 +8508,9 @@
       <c r="H27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="14" t="s">
+      <c r="I27" s="25"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -8390,13 +8531,13 @@
       <c r="Q27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" s="25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
@@ -8415,9 +8556,9 @@
       <c r="H28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="14"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="3" t="s">
         <v>31</v>
       </c>
@@ -8436,11 +8577,11 @@
       <c r="Q28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="17"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
@@ -8459,9 +8600,9 @@
       <c r="H29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="3" t="s">
         <v>32</v>
       </c>
@@ -8485,7 +8626,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
@@ -8505,7 +8646,7 @@
         <v>92</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="3" t="s">
         <v>15</v>
       </c>
@@ -8527,7 +8668,7 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="3" t="s">
         <v>136</v>
       </c>
@@ -8547,7 +8688,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="18"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="3" t="s">
         <v>136</v>
       </c>
@@ -8569,8 +8710,8 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="14" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -8592,8 +8733,8 @@
         <v>93</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="14" t="s">
+      <c r="J32" s="24"/>
+      <c r="K32" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -8617,8 +8758,8 @@
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
@@ -8635,8 +8776,8 @@
         <v>94</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="14"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="3" t="s">
         <v>35</v>
       </c>
@@ -8655,8 +8796,8 @@
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -8675,8 +8816,8 @@
         <v>259</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="14" t="s">
+      <c r="J34" s="24"/>
+      <c r="K34" s="16" t="s">
         <v>261</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -8697,8 +8838,8 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
         <v>263</v>
       </c>
@@ -8715,8 +8856,8 @@
         <v>260</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="14"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="3" t="s">
         <v>263</v>
       </c>
@@ -8735,8 +8876,8 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -8755,8 +8896,8 @@
         <v>8</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="14" t="s">
+      <c r="J36" s="24"/>
+      <c r="K36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -8777,8 +8918,8 @@
       <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
@@ -8795,8 +8936,8 @@
         <v>277</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="14"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="16"/>
       <c r="L37" s="3" t="s">
         <v>37</v>
       </c>
@@ -8815,8 +8956,8 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="3" t="s">
         <v>38</v>
       </c>
@@ -8833,8 +8974,8 @@
         <v>9</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="14"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="3" t="s">
         <v>38</v>
       </c>
@@ -8853,8 +8994,8 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
         <v>39</v>
       </c>
@@ -8871,8 +9012,8 @@
         <v>10</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="14"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="3" t="s">
         <v>39</v>
       </c>
@@ -8891,8 +9032,8 @@
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="3" t="s">
         <v>279</v>
       </c>
@@ -8909,8 +9050,8 @@
         <v>11</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="14"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="3" t="s">
         <v>279</v>
       </c>
@@ -8929,8 +9070,8 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="14" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -8949,8 +9090,8 @@
         <v>95</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="14" t="s">
+      <c r="J41" s="24"/>
+      <c r="K41" s="16" t="s">
         <v>49</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -8971,8 +9112,8 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
         <v>51</v>
       </c>
@@ -8989,8 +9130,8 @@
         <v>52</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="14"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="3" t="s">
         <v>51</v>
       </c>
@@ -9009,8 +9150,8 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="3" t="s">
         <v>212</v>
       </c>
@@ -9030,8 +9171,8 @@
         <v>211</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="14"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="3" t="s">
         <v>212</v>
       </c>
@@ -9053,10 +9194,10 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -9075,10 +9216,10 @@
         <v>217</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="16" t="s">
         <v>41</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -9099,8 +9240,8 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="3" t="s">
         <v>43</v>
       </c>
@@ -9117,8 +9258,8 @@
         <v>218</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="14"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="3" t="s">
         <v>43</v>
       </c>
@@ -9137,8 +9278,8 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="3" t="s">
         <v>193</v>
       </c>
@@ -9155,8 +9296,8 @@
         <v>219</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="14"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="3" t="s">
         <v>193</v>
       </c>
@@ -9175,8 +9316,8 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -9195,8 +9336,8 @@
         <v>87</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="14" t="s">
+      <c r="J47" s="24"/>
+      <c r="K47" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L47" s="3" t="s">
@@ -9217,8 +9358,8 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="3" t="s">
         <v>45</v>
       </c>
@@ -9235,8 +9376,8 @@
         <v>88</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="14"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="3" t="s">
         <v>45</v>
       </c>
@@ -9255,8 +9396,8 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -9275,8 +9416,8 @@
         <v>89</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="14" t="s">
+      <c r="J49" s="24"/>
+      <c r="K49" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -9297,8 +9438,8 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="3" t="s">
         <v>47</v>
       </c>
@@ -9315,8 +9456,8 @@
         <v>90</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="14"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="16"/>
       <c r="L50" s="3" t="s">
         <v>47</v>
       </c>
@@ -9335,8 +9476,8 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="3" t="s">
         <v>48</v>
       </c>
@@ -9353,8 +9494,8 @@
         <v>91</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="14"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="16"/>
       <c r="L51" s="3" t="s">
         <v>48</v>
       </c>
@@ -9373,8 +9514,8 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="3" t="s">
         <v>247</v>
       </c>
@@ -9391,8 +9532,8 @@
         <v>248</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="14"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="3" t="s">
         <v>247</v>
       </c>
@@ -9411,8 +9552,8 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -9431,8 +9572,8 @@
         <v>259</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="14" t="s">
+      <c r="J53" s="24"/>
+      <c r="K53" s="16" t="s">
         <v>261</v>
       </c>
       <c r="L53" s="3" t="s">
@@ -9453,8 +9594,8 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="3" t="s">
         <v>257</v>
       </c>
@@ -9471,8 +9612,8 @@
         <v>260</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="14"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="3" t="s">
         <v>257</v>
       </c>
@@ -9491,8 +9632,8 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="16" t="s">
         <v>252</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -9511,8 +9652,8 @@
         <v>254</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="14" t="s">
+      <c r="J55" s="24"/>
+      <c r="K55" s="16" t="s">
         <v>252</v>
       </c>
       <c r="L55" s="3" t="s">
@@ -9533,8 +9674,8 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="3" t="s">
         <v>258</v>
       </c>
@@ -9551,8 +9692,8 @@
         <v>255</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="14"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="3" t="s">
         <v>258</v>
       </c>
@@ -9571,7 +9712,7 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
@@ -9591,7 +9732,7 @@
         <v>271</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="18"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="3" t="s">
         <v>17</v>
       </c>
@@ -9610,7 +9751,7 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -9630,7 +9771,7 @@
         <v>49</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="3" t="s">
         <v>49</v>
       </c>
@@ -9652,10 +9793,10 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -9676,10 +9817,10 @@
       <c r="I59" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J59" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L59" s="3" t="s">
@@ -9700,8 +9841,8 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="3" t="s">
         <v>55</v>
       </c>
@@ -9718,8 +9859,8 @@
         <v>61</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="14"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="16"/>
       <c r="L60" s="3" t="s">
         <v>55</v>
       </c>
@@ -9738,8 +9879,8 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="3" t="s">
         <v>56</v>
       </c>
@@ -9756,8 +9897,8 @@
         <v>60</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="14"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="16"/>
       <c r="L61" s="3" t="s">
         <v>56</v>
       </c>
@@ -9776,8 +9917,8 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="3" t="s">
         <v>57</v>
       </c>
@@ -9794,8 +9935,8 @@
         <v>6</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="14"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="3" t="s">
         <v>57</v>
       </c>
@@ -9814,8 +9955,8 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="3" t="s">
         <v>58</v>
       </c>
@@ -9832,8 +9973,8 @@
         <v>62</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="14"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="3" t="s">
         <v>58</v>
       </c>
@@ -9852,8 +9993,8 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="14" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -9872,8 +10013,8 @@
         <v>63</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="14" t="s">
+      <c r="J64" s="24"/>
+      <c r="K64" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L64" s="3" t="s">
@@ -9894,8 +10035,8 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="3" t="s">
         <v>158</v>
       </c>
@@ -9912,8 +10053,8 @@
         <v>64</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="14"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="3" t="s">
         <v>158</v>
       </c>
@@ -9932,8 +10073,8 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="3" t="s">
         <v>159</v>
       </c>
@@ -9950,8 +10091,8 @@
         <v>65</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="14"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="16"/>
       <c r="L66" s="3" t="s">
         <v>159</v>
       </c>
@@ -9970,8 +10111,8 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="3" t="s">
         <v>160</v>
       </c>
@@ -9988,8 +10129,8 @@
         <v>129</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="14"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="16"/>
       <c r="L67" s="3" t="s">
         <v>160</v>
       </c>
@@ -10008,8 +10149,8 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -10028,8 +10169,8 @@
         <v>63</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="14" t="s">
+      <c r="J68" s="24"/>
+      <c r="K68" s="16" t="s">
         <v>139</v>
       </c>
       <c r="L68" s="3" t="s">
@@ -10050,8 +10191,8 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="3" t="s">
         <v>162</v>
       </c>
@@ -10068,8 +10209,8 @@
         <v>64</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="14"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="16"/>
       <c r="L69" s="3" t="s">
         <v>162</v>
       </c>
@@ -10088,8 +10229,8 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="3" t="s">
         <v>163</v>
       </c>
@@ -10106,8 +10247,8 @@
         <v>65</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="14"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="16"/>
       <c r="L70" s="3" t="s">
         <v>163</v>
       </c>
@@ -10126,8 +10267,8 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="3" t="s">
         <v>164</v>
       </c>
@@ -10144,8 +10285,8 @@
         <v>129</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="14"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="16"/>
       <c r="L71" s="3" t="s">
         <v>164</v>
       </c>
@@ -10164,8 +10305,8 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="3" t="s">
         <v>202</v>
       </c>
@@ -10182,8 +10323,8 @@
         <v>203</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="14"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="16"/>
       <c r="L72" s="3" t="s">
         <v>202</v>
       </c>
@@ -10202,8 +10343,8 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="14" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -10222,8 +10363,8 @@
         <v>245</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="14" t="s">
+      <c r="J73" s="24"/>
+      <c r="K73" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L73" s="3" t="s">
@@ -10244,8 +10385,8 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="18"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="3" t="s">
         <v>243</v>
       </c>
@@ -10262,8 +10403,8 @@
         <v>246</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="14"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="16"/>
       <c r="L74" s="3" t="s">
         <v>243</v>
       </c>
@@ -10282,8 +10423,8 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="3" t="s">
         <v>244</v>
       </c>
@@ -10300,8 +10441,8 @@
         <v>86</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="14"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="16"/>
       <c r="L75" s="3" t="s">
         <v>244</v>
       </c>
@@ -10320,8 +10461,8 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -10340,8 +10481,8 @@
         <v>278</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="14" t="s">
+      <c r="J76" s="24"/>
+      <c r="K76" s="16" t="s">
         <v>17</v>
       </c>
       <c r="L76" s="3" t="s">
@@ -10362,8 +10503,8 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3" t="s">
         <v>276</v>
       </c>
@@ -10380,8 +10521,8 @@
         <v>277</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="14"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="3" t="s">
         <v>269</v>
       </c>
@@ -10400,8 +10541,8 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -10420,8 +10561,8 @@
         <v>214</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="14" t="s">
+      <c r="J78" s="24"/>
+      <c r="K78" s="16" t="s">
         <v>49</v>
       </c>
       <c r="L78" s="3" t="s">
@@ -10442,8 +10583,8 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="3" t="s">
         <v>206</v>
       </c>
@@ -10460,8 +10601,8 @@
         <v>215</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="14"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="16"/>
       <c r="L79" s="3" t="s">
         <v>206</v>
       </c>
@@ -10480,8 +10621,8 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="14"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="3" t="s">
         <v>207</v>
       </c>
@@ -10498,8 +10639,8 @@
         <v>216</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="14"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="16"/>
       <c r="L80" s="3" t="s">
         <v>207</v>
       </c>
@@ -10518,10 +10659,10 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -10540,10 +10681,10 @@
         <v>59</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="16" t="s">
         <v>53</v>
       </c>
       <c r="L81" s="3" t="s">
@@ -10564,8 +10705,8 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="3" t="s">
         <v>68</v>
       </c>
@@ -10582,8 +10723,8 @@
         <v>61</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="14"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="16"/>
       <c r="L82" s="3" t="s">
         <v>68</v>
       </c>
@@ -10602,8 +10743,8 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="18"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="3" t="s">
         <v>69</v>
       </c>
@@ -10620,8 +10761,8 @@
         <v>60</v>
       </c>
       <c r="I83" s="4"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="14"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="16"/>
       <c r="L83" s="3" t="s">
         <v>69</v>
       </c>
@@ -10640,8 +10781,8 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="3" t="s">
         <v>70</v>
       </c>
@@ -10658,8 +10799,8 @@
         <v>6</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="14"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="16"/>
       <c r="L84" s="3" t="s">
         <v>70</v>
       </c>
@@ -10678,8 +10819,8 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="3" t="s">
         <v>71</v>
       </c>
@@ -10696,8 +10837,8 @@
         <v>62</v>
       </c>
       <c r="I85" s="4"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="14"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="16"/>
       <c r="L85" s="3" t="s">
         <v>71</v>
       </c>
@@ -10716,8 +10857,8 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="18"/>
-      <c r="B86" s="14" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -10736,8 +10877,8 @@
         <v>73</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="14" t="s">
+      <c r="J86" s="24"/>
+      <c r="K86" s="16" t="s">
         <v>131</v>
       </c>
       <c r="L86" s="3" t="s">
@@ -10758,8 +10899,8 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="3" t="s">
         <v>170</v>
       </c>
@@ -10776,8 +10917,8 @@
         <v>74</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="14"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="16"/>
       <c r="L87" s="3" t="s">
         <v>170</v>
       </c>
@@ -10796,8 +10937,8 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="3" t="s">
         <v>171</v>
       </c>
@@ -10814,8 +10955,8 @@
         <v>75</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="14"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="16"/>
       <c r="L88" s="3" t="s">
         <v>171</v>
       </c>
@@ -10834,8 +10975,8 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="18"/>
-      <c r="B89" s="14"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="3" t="s">
         <v>172</v>
       </c>
@@ -10852,8 +10993,8 @@
         <v>128</v>
       </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="14"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="16"/>
       <c r="L89" s="3" t="s">
         <v>172</v>
       </c>
@@ -10872,8 +11013,8 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="18"/>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -10892,8 +11033,8 @@
         <v>73</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="14" t="s">
+      <c r="J90" s="24"/>
+      <c r="K90" s="16" t="s">
         <v>139</v>
       </c>
       <c r="L90" s="3" t="s">
@@ -10914,8 +11055,8 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18"/>
-      <c r="B91" s="14"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="3" t="s">
         <v>166</v>
       </c>
@@ -10932,8 +11073,8 @@
         <v>74</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="14"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="16"/>
       <c r="L91" s="3" t="s">
         <v>166</v>
       </c>
@@ -10952,8 +11093,8 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="18"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="3" t="s">
         <v>167</v>
       </c>
@@ -10970,8 +11111,8 @@
         <v>75</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="14"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="16"/>
       <c r="L92" s="3" t="s">
         <v>167</v>
       </c>
@@ -10990,8 +11131,8 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="18"/>
-      <c r="B93" s="14"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="3" t="s">
         <v>168</v>
       </c>
@@ -11008,8 +11149,8 @@
         <v>128</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="14"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="16"/>
       <c r="L93" s="3" t="s">
         <v>168</v>
       </c>
@@ -11028,8 +11169,8 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="18"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="3" t="s">
         <v>200</v>
       </c>
@@ -11046,8 +11187,8 @@
         <v>201</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="14"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="16"/>
       <c r="L94" s="3" t="s">
         <v>200</v>
       </c>
@@ -11066,8 +11207,8 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18"/>
-      <c r="B95" s="14" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -11086,8 +11227,8 @@
         <v>245</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="14" t="s">
+      <c r="J95" s="24"/>
+      <c r="K95" s="16" t="s">
         <v>14</v>
       </c>
       <c r="L95" s="3" t="s">
@@ -11108,8 +11249,8 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="18"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="3" t="s">
         <v>240</v>
       </c>
@@ -11126,8 +11267,8 @@
         <v>246</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="14"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="16"/>
       <c r="L96" s="3" t="s">
         <v>240</v>
       </c>
@@ -11146,8 +11287,8 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="18"/>
-      <c r="B97" s="14"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="3" t="s">
         <v>241</v>
       </c>
@@ -11164,8 +11305,8 @@
         <v>86</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="14"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="16"/>
       <c r="L97" s="3" t="s">
         <v>241</v>
       </c>
@@ -11184,8 +11325,8 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18"/>
-      <c r="B98" s="14" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -11204,8 +11345,8 @@
         <v>214</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="14" t="s">
+      <c r="J98" s="24"/>
+      <c r="K98" s="16" t="s">
         <v>49</v>
       </c>
       <c r="L98" s="3" t="s">
@@ -11226,8 +11367,8 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="18"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="3" t="s">
         <v>209</v>
       </c>
@@ -11244,8 +11385,8 @@
         <v>215</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="14"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="16"/>
       <c r="L99" s="3" t="s">
         <v>209</v>
       </c>
@@ -11264,8 +11405,8 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="5" t="s">
         <v>210</v>
       </c>
@@ -11283,8 +11424,8 @@
         <v>216</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="20"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="26"/>
       <c r="L100" s="5" t="s">
         <v>210</v>
       </c>
@@ -11305,6 +11446,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J59:J80"/>
+    <mergeCell ref="K59:K63"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="K68:K72"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="J81:J100"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="J44:J58"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J4:J43"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A59:A80"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A81:A100"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B81:B85"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:H2"/>
@@ -11321,57 +11513,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A59:A80"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A81:A100"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="J44:J58"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J4:J43"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="K90:K94"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J59:J80"/>
-    <mergeCell ref="K59:K63"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="K68:K72"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="J81:J100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11414,7 +11555,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>19</v>
@@ -11458,7 +11599,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>132</v>
@@ -11490,7 +11631,7 @@
         <v>131</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>133</v>
@@ -11522,7 +11663,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>135</v>
@@ -11586,7 +11727,7 @@
         <v>139</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>141</v>
@@ -11650,7 +11791,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>152</v>
@@ -11682,7 +11823,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>36</v>
@@ -11697,7 +11838,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>124</v>
@@ -11714,7 +11855,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>37</v>
@@ -11746,7 +11887,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>38</v>
@@ -11778,7 +11919,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>39</v>
@@ -11810,10 +11951,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>11</v>
@@ -11857,7 +11998,7 @@
         <v>267</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>305</v>
@@ -11874,7 +12015,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>35</v>
@@ -11892,7 +12033,7 @@
         <v>106</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>149</v>
@@ -11938,7 +12079,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>33</v>
@@ -11970,7 +12111,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>20</v>
@@ -12002,10 +12143,10 @@
         <v>53</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>77</v>
@@ -12014,13 +12155,13 @@
         <v>102</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>101</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>147</v>
@@ -12034,10 +12175,10 @@
         <v>53</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>78</v>
@@ -12066,7 +12207,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>23</v>
@@ -12084,7 +12225,7 @@
         <v>106</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>145</v>
@@ -12098,10 +12239,10 @@
         <v>261</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>259</v>
@@ -12113,10 +12254,10 @@
         <v>196</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>90</v>
@@ -12128,7 +12269,7 @@
         <v>392</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>394</v>
@@ -12142,10 +12283,10 @@
         <v>261</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>260</v>
@@ -12157,7 +12298,7 @@
         <v>125</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>266</v>
@@ -12174,7 +12315,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>28</v>
@@ -12241,7 +12382,7 @@
         <v>294</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>83</v>
@@ -12271,10 +12412,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>84</v>
@@ -12303,10 +12444,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>85</v>
@@ -12335,10 +12476,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>86</v>
@@ -12433,7 +12574,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>32</v>
@@ -12451,7 +12592,7 @@
         <v>185</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>214</v>
@@ -12498,7 +12639,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>51</v>
@@ -12563,10 +12704,10 @@
         <v>391</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -12577,10 +12718,10 @@
         <v>281</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>80</v>
@@ -12589,7 +12730,7 @@
         <v>119</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>120</v>
@@ -12609,10 +12750,10 @@
         <v>281</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>81</v>
@@ -12641,10 +12782,10 @@
         <v>281</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>82</v>
@@ -12673,7 +12814,7 @@
         <v>286</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>204</v>
@@ -12705,7 +12846,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>42</v>
@@ -12737,7 +12878,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>43</v>
@@ -12769,7 +12910,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>193</v>
@@ -12843,7 +12984,7 @@
         <v>252</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>258</v>
@@ -12875,7 +13016,7 @@
         <v>261</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>256</v>
@@ -12913,7 +13054,7 @@
         <v>261</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>257</v>
@@ -12945,7 +13086,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>44</v>
@@ -12983,7 +13124,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>45</v>
@@ -13015,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>46</v>
@@ -13047,7 +13188,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>47</v>
@@ -13079,7 +13220,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>48</v>
@@ -13111,7 +13252,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>247</v>
@@ -13143,7 +13284,7 @@
         <v>49</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>213</v>
@@ -13175,7 +13316,7 @@
         <v>131</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>169</v>
@@ -13207,7 +13348,7 @@
         <v>131</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>170</v>
@@ -13239,7 +13380,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>172</v>
@@ -13277,7 +13418,7 @@
         <v>139</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>165</v>
@@ -13309,7 +13450,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>166</v>
@@ -13341,7 +13482,7 @@
         <v>139</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>168</v>
@@ -13371,10 +13512,10 @@
         <v>393</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -13385,7 +13526,7 @@
         <v>139</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>200</v>
@@ -13417,7 +13558,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>67</v>
@@ -13508,13 +13649,13 @@
         <v>99</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="M63" s="13" t="s">
         <v>221</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -13549,10 +13690,10 @@
         <v>79</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -13563,7 +13704,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>71</v>
@@ -13627,7 +13768,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>240</v>
@@ -13659,7 +13800,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>241</v>
@@ -13723,7 +13864,7 @@
         <v>49</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>209</v>
@@ -13755,7 +13896,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>210</v>
@@ -13787,7 +13928,7 @@
         <v>131</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>157</v>
@@ -13851,7 +13992,7 @@
         <v>131</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>160</v>
@@ -13889,7 +14030,7 @@
         <v>139</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>161</v>
@@ -13921,7 +14062,7 @@
         <v>139</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>162</v>
@@ -13953,7 +14094,7 @@
         <v>139</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>164</v>
@@ -13985,7 +14126,7 @@
         <v>139</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>202</v>
@@ -14017,10 +14158,10 @@
         <v>17</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>278</v>
@@ -14049,7 +14190,7 @@
         <v>17</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>276</v>
@@ -14215,7 +14356,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>58</v>
@@ -14311,7 +14452,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>244</v>
@@ -14375,7 +14516,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>206</v>
@@ -14407,7 +14548,7 @@
         <v>49</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>207</v>

--- a/color_list.xlsx
+++ b/color_list.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">查询!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$98</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="631">
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
@@ -3055,6 +3055,74 @@
   </si>
   <si>
     <t>#D0021B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键菜单</t>
+    <rPh sb="0" eb="1">
+      <t>you jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单默认</t>
+    <rPh sb="0" eb="1">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单悬停</t>
+    <rPh sb="0" eb="1">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan ting</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单整体</t>
+    <rPh sb="0" eb="1">
+      <t>cai dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_rightmenu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_rightmenu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp_bg_rightmenu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border_color_16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4461,246 +4529,230 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="D28" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>177</v>
-      </c>
+      <c r="C30" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="10" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B32" s="16"/>
       <c r="C32" s="10" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="N32" s="11"/>
+        <v>237</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="10" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>293</v>
+        <v>156</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="N33" s="11"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="N34" s="11"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>294</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>292</v>
@@ -4714,635 +4766,656 @@
       <c r="J35" s="10" t="s">
         <v>293</v>
       </c>
+      <c r="K35" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="10" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="L37" s="11"/>
       <c r="M37" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="10" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
-      <c r="B41" s="10" t="s">
-        <v>286</v>
+      <c r="B41" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>436</v>
+        <v>282</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="G41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>229</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>615</v>
+        <v>284</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>229</v>
       </c>
+      <c r="K43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="10" t="s">
+        <v>286</v>
+      </c>
       <c r="C44" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="H44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J44" s="10" t="s">
+      <c r="I45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="10" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>258</v>
+        <v>615</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>616</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>401</v>
+      <c r="C47" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="10" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
-      <c r="B50" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>110</v>
+      <c r="B50" s="16"/>
+      <c r="C50" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="C51" s="10" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
-      <c r="B52" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B52" s="16"/>
       <c r="C52" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="C53" s="10" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="N53" s="11"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C55" s="10" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="N55" s="11"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
-      <c r="B56" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="B56" s="16"/>
       <c r="C56" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>108</v>
@@ -5350,365 +5423,371 @@
       <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="10" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="10" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>518</v>
+        <v>247</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B59" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
-      <c r="B60" s="16" t="s">
-        <v>139</v>
+      <c r="B60" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="G61" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="10" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>168</v>
+        <v>518</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="10" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="10" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>111</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>112</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="10" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C68" s="10" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>614</v>
+        <v>495</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
-      <c r="B69" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B69" s="16"/>
       <c r="C69" s="10" t="s">
         <v>365</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>109</v>
@@ -5717,7 +5796,7 @@
         <v>111</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>112</v>
@@ -5727,162 +5806,158 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="10" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="10" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
-      <c r="B72" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="B72" s="16"/>
       <c r="C72" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G72" s="10" t="s">
+      <c r="D73" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H73" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I72" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J72" s="10" t="s">
+      <c r="I73" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>125</v>
       </c>
       <c r="I74" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J74" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>131</v>
-      </c>
+    </row>
+    <row r="75" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="10" t="s">
         <v>297</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>107</v>
@@ -5899,393 +5974,394 @@
     </row>
     <row r="76" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="C76" s="10" t="s">
-        <v>294</v>
+        <v>365</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="10" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
-      <c r="B78" s="16" t="s">
-        <v>139</v>
-      </c>
+      <c r="B78" s="16"/>
       <c r="C78" s="10" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F78" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>107</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>108</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="10" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="10" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>278</v>
+        <v>63</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="10" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
-      <c r="B84" s="16" t="s">
-        <v>53</v>
-      </c>
+      <c r="B84" s="16"/>
       <c r="C84" s="10" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="10" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L85" s="10" t="s">
-        <v>251</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C86" s="10" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="10" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C88" s="10" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16"/>
-      <c r="B89" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B89" s="16"/>
       <c r="C89" s="10" t="s">
         <v>365</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>109</v>
@@ -6294,192 +6370,310 @@
         <v>111</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>112</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="10" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="10" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
-      <c r="B92" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="B92" s="16"/>
       <c r="C92" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C93" s="10" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D98" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E98" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F98" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G98" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H98" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I98" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J94" s="10" t="s">
+      <c r="J98" s="10" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J94">
+  <autoFilter ref="A1:J98">
     <sortState ref="A2:I97">
       <sortCondition ref="A1:A97"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="31">
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B55"/>
+  <mergeCells count="32">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B87"/>
     <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A2:A41"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A74"/>
-    <mergeCell ref="A75:A94"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="A79:A98"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/color_list.xlsx
+++ b/color_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuwen/Desktop/Mike/工作文件/Miner_c07_d1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snail/Desktop/minerUI/src/libs/color/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="460" windowWidth="32060" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="对照清单" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="查询" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">查询!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">对照清单!$A$1:$J$98</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="635">
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
@@ -3110,20 +3110,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>border_color_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg_color_43</t>
+  </si>
+  <si>
     <t>bg_color_41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_color_42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg_color_43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>border_color_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ace主题</t>
+  </si>
+  <si>
+    <t>clouds_midnight</t>
+  </si>
+  <si>
+    <t>twilight</t>
+  </si>
+  <si>
+    <t>ace编辑器主题</t>
+  </si>
+  <si>
+    <t>aceTheme_color_1</t>
   </si>
 </sst>
 </file>
@@ -3136,7 +3145,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3376,6 +3384,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3391,23 +3411,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3682,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4541,7 +4549,7 @@
         <v>624</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>621</v>
@@ -4569,7 +4577,7 @@
         <v>625</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>622</v>
@@ -4597,7 +4605,7 @@
         <v>626</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>623</v>
@@ -5492,7 +5500,7 @@
         <v>213</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>620</v>
@@ -6633,6 +6641,23 @@
       </c>
       <c r="J98" s="10" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -6642,6 +6667,22 @@
     </sortState>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="A45:A60"/>
+    <mergeCell ref="A61:A78"/>
+    <mergeCell ref="A79:A98"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B88:B92"/>
@@ -6658,22 +6699,6 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A2:A44"/>
-    <mergeCell ref="A45:A60"/>
-    <mergeCell ref="A61:A78"/>
-    <mergeCell ref="A79:A98"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7632,49 +7657,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -7734,7 +7759,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -7756,7 +7781,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -7780,7 +7805,7 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -7803,7 +7828,7 @@
       <c r="I5" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="16"/>
       <c r="L5" s="3" t="s">
         <v>21</v>
@@ -7828,7 +7853,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -7846,7 +7871,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="16"/>
       <c r="L6" s="3" t="s">
         <v>22</v>
@@ -7866,7 +7891,7 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -7886,7 +7911,7 @@
       <c r="I7" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="16"/>
       <c r="L7" s="3" t="s">
         <v>23</v>
@@ -7908,7 +7933,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="16" t="s">
         <v>281</v>
       </c>
@@ -7931,7 +7956,7 @@
         <v>80</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="16" t="s">
         <v>281</v>
       </c>
@@ -7956,7 +7981,7 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>283</v>
@@ -7977,7 +8002,7 @@
         <v>81</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="16"/>
       <c r="L9" s="3" t="s">
         <v>283</v>
@@ -8000,7 +8025,7 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>284</v>
@@ -8021,7 +8046,7 @@
         <v>82</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="16"/>
       <c r="L10" s="3" t="s">
         <v>284</v>
@@ -8044,7 +8069,7 @@
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>286</v>
       </c>
@@ -8064,7 +8089,7 @@
         <v>285</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="3" t="s">
         <v>286</v>
       </c>
@@ -8086,7 +8111,7 @@
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="16" t="s">
         <v>131</v>
       </c>
@@ -8106,7 +8131,7 @@
         <v>144</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="16" t="s">
         <v>131</v>
       </c>
@@ -8128,7 +8153,7 @@
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>133</v>
@@ -8146,7 +8171,7 @@
         <v>146</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="16"/>
       <c r="L13" s="3" t="s">
         <v>133</v>
@@ -8166,7 +8191,7 @@
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
         <v>134</v>
@@ -8184,7 +8209,7 @@
         <v>147</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="16"/>
       <c r="L14" s="3" t="s">
         <v>134</v>
@@ -8204,7 +8229,7 @@
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>135</v>
@@ -8222,7 +8247,7 @@
         <v>148</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="16"/>
       <c r="L15" s="3" t="s">
         <v>135</v>
@@ -8242,7 +8267,7 @@
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>139</v>
       </c>
@@ -8262,7 +8287,7 @@
         <v>149</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="16" t="s">
         <v>139</v>
       </c>
@@ -8284,7 +8309,7 @@
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="16"/>
       <c r="C17" s="3" t="s">
         <v>141</v>
@@ -8302,7 +8327,7 @@
         <v>145</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="16"/>
       <c r="L17" s="3" t="s">
         <v>141</v>
@@ -8322,7 +8347,7 @@
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>142</v>
@@ -8340,7 +8365,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="16"/>
       <c r="L18" s="3" t="s">
         <v>142</v>
@@ -8360,7 +8385,7 @@
       <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="16"/>
       <c r="C19" s="3" t="s">
         <v>143</v>
@@ -8378,7 +8403,7 @@
         <v>151</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="16"/>
       <c r="L19" s="3" t="s">
         <v>143</v>
@@ -8398,7 +8423,7 @@
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
         <v>152</v>
@@ -8416,7 +8441,7 @@
         <v>153</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="16"/>
       <c r="L20" s="3" t="s">
         <v>152</v>
@@ -8436,7 +8461,7 @@
       <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="16" t="s">
         <v>12</v>
       </c>
@@ -8456,7 +8481,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="24"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="16" t="s">
         <v>12</v>
       </c>
@@ -8478,7 +8503,7 @@
       <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="16"/>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -8496,7 +8521,7 @@
         <v>84</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="16"/>
       <c r="L22" s="3" t="s">
         <v>25</v>
@@ -8516,7 +8541,7 @@
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="16"/>
       <c r="C23" s="3" t="s">
         <v>26</v>
@@ -8534,7 +8559,7 @@
         <v>85</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="16"/>
       <c r="L23" s="3" t="s">
         <v>26</v>
@@ -8554,7 +8579,7 @@
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="16"/>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -8572,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="16"/>
       <c r="L24" s="3" t="s">
         <v>27</v>
@@ -8592,7 +8617,7 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="16" t="s">
         <v>13</v>
       </c>
@@ -8612,7 +8637,7 @@
         <v>87</v>
       </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="16" t="s">
         <v>13</v>
       </c>
@@ -8634,7 +8659,7 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="16"/>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -8654,10 +8679,10 @@
       <c r="H26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="16"/>
       <c r="L26" s="3" t="s">
         <v>29</v>
@@ -8680,7 +8705,7 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="16" t="s">
         <v>14</v>
       </c>
@@ -8702,8 +8727,8 @@
       <c r="H27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="16" t="s">
         <v>14</v>
       </c>
@@ -8725,12 +8750,12 @@
       <c r="Q27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="19" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="16"/>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -8750,8 +8775,8 @@
       <c r="H28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="16"/>
       <c r="L28" s="3" t="s">
         <v>31</v>
@@ -8771,10 +8796,10 @@
       <c r="Q28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R28" s="25"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>32</v>
@@ -8794,8 +8819,8 @@
       <c r="H29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="24"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="16"/>
       <c r="L29" s="3" t="s">
         <v>32</v>
@@ -8820,7 +8845,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
@@ -8840,7 +8865,7 @@
         <v>92</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="3" t="s">
         <v>15</v>
       </c>
@@ -8862,7 +8887,7 @@
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="3" t="s">
         <v>136</v>
       </c>
@@ -8882,7 +8907,7 @@
         <v>138</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="3" t="s">
         <v>136</v>
       </c>
@@ -8904,7 +8929,7 @@
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="16" t="s">
         <v>16</v>
       </c>
@@ -8927,7 +8952,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="16" t="s">
         <v>16</v>
       </c>
@@ -8952,7 +8977,7 @@
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="16"/>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -8970,7 +8995,7 @@
         <v>94</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="16"/>
       <c r="L33" s="3" t="s">
         <v>35</v>
@@ -8990,7 +9015,7 @@
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="16" t="s">
         <v>261</v>
       </c>
@@ -9010,7 +9035,7 @@
         <v>259</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="16" t="s">
         <v>261</v>
       </c>
@@ -9032,7 +9057,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="16"/>
       <c r="C35" s="3" t="s">
         <v>263</v>
@@ -9050,7 +9075,7 @@
         <v>260</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="16"/>
       <c r="L35" s="3" t="s">
         <v>263</v>
@@ -9070,7 +9095,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="16" t="s">
         <v>17</v>
       </c>
@@ -9090,7 +9115,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="24"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="16" t="s">
         <v>17</v>
       </c>
@@ -9112,7 +9137,7 @@
       <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="16"/>
       <c r="C37" s="3" t="s">
         <v>37</v>
@@ -9130,7 +9155,7 @@
         <v>277</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="16"/>
       <c r="L37" s="3" t="s">
         <v>37</v>
@@ -9150,7 +9175,7 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="16"/>
       <c r="C38" s="3" t="s">
         <v>38</v>
@@ -9168,7 +9193,7 @@
         <v>9</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="16"/>
       <c r="L38" s="3" t="s">
         <v>38</v>
@@ -9188,7 +9213,7 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="16"/>
       <c r="C39" s="3" t="s">
         <v>39</v>
@@ -9206,7 +9231,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="20"/>
       <c r="K39" s="16"/>
       <c r="L39" s="3" t="s">
         <v>39</v>
@@ -9226,7 +9251,7 @@
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="16"/>
       <c r="C40" s="3" t="s">
         <v>279</v>
@@ -9244,7 +9269,7 @@
         <v>11</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="16"/>
       <c r="L40" s="3" t="s">
         <v>279</v>
@@ -9264,7 +9289,7 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="16" t="s">
         <v>49</v>
       </c>
@@ -9284,7 +9309,7 @@
         <v>95</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="16" t="s">
         <v>49</v>
       </c>
@@ -9306,7 +9331,7 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="16"/>
       <c r="C42" s="3" t="s">
         <v>51</v>
@@ -9324,7 +9349,7 @@
         <v>52</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="16"/>
       <c r="L42" s="3" t="s">
         <v>51</v>
@@ -9344,7 +9369,7 @@
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="16"/>
       <c r="C43" s="3" t="s">
         <v>212</v>
@@ -9365,7 +9390,7 @@
         <v>211</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="20"/>
       <c r="K43" s="16"/>
       <c r="L43" s="3" t="s">
         <v>212</v>
@@ -9388,7 +9413,7 @@
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -9410,7 +9435,7 @@
         <v>217</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K44" s="16" t="s">
@@ -9434,7 +9459,7 @@
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="16"/>
       <c r="C45" s="3" t="s">
         <v>43</v>
@@ -9452,7 +9477,7 @@
         <v>218</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="16"/>
       <c r="L45" s="3" t="s">
         <v>43</v>
@@ -9472,7 +9497,7 @@
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="16"/>
       <c r="C46" s="3" t="s">
         <v>193</v>
@@ -9490,7 +9515,7 @@
         <v>219</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="16"/>
       <c r="L46" s="3" t="s">
         <v>193</v>
@@ -9510,7 +9535,7 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="16" t="s">
         <v>13</v>
       </c>
@@ -9530,7 +9555,7 @@
         <v>87</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="20"/>
       <c r="K47" s="16" t="s">
         <v>13</v>
       </c>
@@ -9552,7 +9577,7 @@
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="16"/>
       <c r="C48" s="3" t="s">
         <v>45</v>
@@ -9570,7 +9595,7 @@
         <v>88</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="20"/>
       <c r="K48" s="16"/>
       <c r="L48" s="3" t="s">
         <v>45</v>
@@ -9590,7 +9615,7 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="16" t="s">
         <v>14</v>
       </c>
@@ -9610,7 +9635,7 @@
         <v>89</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="24"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="16" t="s">
         <v>14</v>
       </c>
@@ -9632,7 +9657,7 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="16"/>
       <c r="C50" s="3" t="s">
         <v>47</v>
@@ -9650,7 +9675,7 @@
         <v>90</v>
       </c>
       <c r="I50" s="4"/>
-      <c r="J50" s="24"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="16"/>
       <c r="L50" s="3" t="s">
         <v>47</v>
@@ -9670,7 +9695,7 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="16"/>
       <c r="C51" s="3" t="s">
         <v>48</v>
@@ -9688,7 +9713,7 @@
         <v>91</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="24"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="16"/>
       <c r="L51" s="3" t="s">
         <v>48</v>
@@ -9708,7 +9733,7 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="16"/>
       <c r="C52" s="3" t="s">
         <v>247</v>
@@ -9726,7 +9751,7 @@
         <v>248</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="24"/>
+      <c r="J52" s="20"/>
       <c r="K52" s="16"/>
       <c r="L52" s="3" t="s">
         <v>247</v>
@@ -9746,7 +9771,7 @@
       <c r="R52" s="7"/>
     </row>
     <row r="53" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="16" t="s">
         <v>261</v>
       </c>
@@ -9766,7 +9791,7 @@
         <v>259</v>
       </c>
       <c r="I53" s="4"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="20"/>
       <c r="K53" s="16" t="s">
         <v>261</v>
       </c>
@@ -9788,7 +9813,7 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="16"/>
       <c r="C54" s="3" t="s">
         <v>257</v>
@@ -9806,7 +9831,7 @@
         <v>260</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="24"/>
+      <c r="J54" s="20"/>
       <c r="K54" s="16"/>
       <c r="L54" s="3" t="s">
         <v>257</v>
@@ -9826,7 +9851,7 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="16" t="s">
         <v>252</v>
       </c>
@@ -9846,7 +9871,7 @@
         <v>254</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="24"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="16" t="s">
         <v>252</v>
       </c>
@@ -9868,7 +9893,7 @@
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="16"/>
       <c r="C56" s="3" t="s">
         <v>258</v>
@@ -9886,7 +9911,7 @@
         <v>255</v>
       </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="24"/>
+      <c r="J56" s="20"/>
       <c r="K56" s="16"/>
       <c r="L56" s="3" t="s">
         <v>258</v>
@@ -9906,7 +9931,7 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
@@ -9926,7 +9951,7 @@
         <v>271</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="24"/>
+      <c r="J57" s="20"/>
       <c r="K57" s="3" t="s">
         <v>17</v>
       </c>
@@ -9945,7 +9970,7 @@
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
@@ -9965,7 +9990,7 @@
         <v>49</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="24"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="3" t="s">
         <v>49</v>
       </c>
@@ -9987,7 +10012,7 @@
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -10011,7 +10036,7 @@
       <c r="I59" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="20" t="s">
         <v>66</v>
       </c>
       <c r="K59" s="16" t="s">
@@ -10035,7 +10060,7 @@
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="16"/>
       <c r="C60" s="3" t="s">
         <v>55</v>
@@ -10053,7 +10078,7 @@
         <v>61</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="24"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="16"/>
       <c r="L60" s="3" t="s">
         <v>55</v>
@@ -10073,7 +10098,7 @@
       <c r="R60" s="4"/>
     </row>
     <row r="61" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="16"/>
       <c r="C61" s="3" t="s">
         <v>56</v>
@@ -10091,7 +10116,7 @@
         <v>60</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="16"/>
       <c r="L61" s="3" t="s">
         <v>56</v>
@@ -10111,7 +10136,7 @@
       <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="16"/>
       <c r="C62" s="3" t="s">
         <v>57</v>
@@ -10129,7 +10154,7 @@
         <v>6</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="24"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="16"/>
       <c r="L62" s="3" t="s">
         <v>57</v>
@@ -10149,7 +10174,7 @@
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="16"/>
       <c r="C63" s="3" t="s">
         <v>58</v>
@@ -10167,7 +10192,7 @@
         <v>62</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="24"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="16"/>
       <c r="L63" s="3" t="s">
         <v>58</v>
@@ -10187,7 +10212,7 @@
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="16" t="s">
         <v>131</v>
       </c>
@@ -10207,7 +10232,7 @@
         <v>63</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="24"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="16" t="s">
         <v>131</v>
       </c>
@@ -10229,7 +10254,7 @@
       <c r="R64" s="4"/>
     </row>
     <row r="65" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="16"/>
       <c r="C65" s="3" t="s">
         <v>158</v>
@@ -10247,7 +10272,7 @@
         <v>64</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="24"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="16"/>
       <c r="L65" s="3" t="s">
         <v>158</v>
@@ -10267,7 +10292,7 @@
       <c r="R65" s="4"/>
     </row>
     <row r="66" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="16"/>
       <c r="C66" s="3" t="s">
         <v>159</v>
@@ -10285,7 +10310,7 @@
         <v>65</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="24"/>
+      <c r="J66" s="20"/>
       <c r="K66" s="16"/>
       <c r="L66" s="3" t="s">
         <v>159</v>
@@ -10305,7 +10330,7 @@
       <c r="R66" s="4"/>
     </row>
     <row r="67" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="16"/>
       <c r="C67" s="3" t="s">
         <v>160</v>
@@ -10323,7 +10348,7 @@
         <v>129</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="24"/>
+      <c r="J67" s="20"/>
       <c r="K67" s="16"/>
       <c r="L67" s="3" t="s">
         <v>160</v>
@@ -10343,7 +10368,7 @@
       <c r="R67" s="4"/>
     </row>
     <row r="68" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="16" t="s">
         <v>139</v>
       </c>
@@ -10363,7 +10388,7 @@
         <v>63</v>
       </c>
       <c r="I68" s="4"/>
-      <c r="J68" s="24"/>
+      <c r="J68" s="20"/>
       <c r="K68" s="16" t="s">
         <v>139</v>
       </c>
@@ -10385,7 +10410,7 @@
       <c r="R68" s="4"/>
     </row>
     <row r="69" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="16"/>
       <c r="C69" s="3" t="s">
         <v>162</v>
@@ -10403,7 +10428,7 @@
         <v>64</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="20"/>
       <c r="K69" s="16"/>
       <c r="L69" s="3" t="s">
         <v>162</v>
@@ -10423,7 +10448,7 @@
       <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="16"/>
       <c r="C70" s="3" t="s">
         <v>163</v>
@@ -10441,7 +10466,7 @@
         <v>65</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="24"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="16"/>
       <c r="L70" s="3" t="s">
         <v>163</v>
@@ -10461,7 +10486,7 @@
       <c r="R70" s="4"/>
     </row>
     <row r="71" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="16"/>
       <c r="C71" s="3" t="s">
         <v>164</v>
@@ -10479,7 +10504,7 @@
         <v>129</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="24"/>
+      <c r="J71" s="20"/>
       <c r="K71" s="16"/>
       <c r="L71" s="3" t="s">
         <v>164</v>
@@ -10499,7 +10524,7 @@
       <c r="R71" s="4"/>
     </row>
     <row r="72" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="16"/>
       <c r="C72" s="3" t="s">
         <v>202</v>
@@ -10517,7 +10542,7 @@
         <v>203</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="24"/>
+      <c r="J72" s="20"/>
       <c r="K72" s="16"/>
       <c r="L72" s="3" t="s">
         <v>202</v>
@@ -10537,7 +10562,7 @@
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="16" t="s">
         <v>14</v>
       </c>
@@ -10557,7 +10582,7 @@
         <v>245</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="24"/>
+      <c r="J73" s="20"/>
       <c r="K73" s="16" t="s">
         <v>14</v>
       </c>
@@ -10579,7 +10604,7 @@
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="16"/>
       <c r="C74" s="3" t="s">
         <v>243</v>
@@ -10597,7 +10622,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="4"/>
-      <c r="J74" s="24"/>
+      <c r="J74" s="20"/>
       <c r="K74" s="16"/>
       <c r="L74" s="3" t="s">
         <v>243</v>
@@ -10617,7 +10642,7 @@
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="16"/>
       <c r="C75" s="3" t="s">
         <v>244</v>
@@ -10635,7 +10660,7 @@
         <v>86</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="24"/>
+      <c r="J75" s="20"/>
       <c r="K75" s="16"/>
       <c r="L75" s="3" t="s">
         <v>244</v>
@@ -10655,7 +10680,7 @@
       <c r="R75" s="4"/>
     </row>
     <row r="76" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="16" t="s">
         <v>17</v>
       </c>
@@ -10675,7 +10700,7 @@
         <v>278</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="24"/>
+      <c r="J76" s="20"/>
       <c r="K76" s="16" t="s">
         <v>17</v>
       </c>
@@ -10697,7 +10722,7 @@
       <c r="R76" s="4"/>
     </row>
     <row r="77" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="16"/>
       <c r="C77" s="3" t="s">
         <v>276</v>
@@ -10715,7 +10740,7 @@
         <v>277</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="24"/>
+      <c r="J77" s="20"/>
       <c r="K77" s="16"/>
       <c r="L77" s="3" t="s">
         <v>269</v>
@@ -10735,7 +10760,7 @@
       <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="16" t="s">
         <v>49</v>
       </c>
@@ -10755,7 +10780,7 @@
         <v>214</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="24"/>
+      <c r="J78" s="20"/>
       <c r="K78" s="16" t="s">
         <v>49</v>
       </c>
@@ -10777,7 +10802,7 @@
       <c r="R78" s="4"/>
     </row>
     <row r="79" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="16"/>
       <c r="C79" s="3" t="s">
         <v>206</v>
@@ -10795,7 +10820,7 @@
         <v>215</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="24"/>
+      <c r="J79" s="20"/>
       <c r="K79" s="16"/>
       <c r="L79" s="3" t="s">
         <v>206</v>
@@ -10815,7 +10840,7 @@
       <c r="R79" s="4"/>
     </row>
     <row r="80" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="16"/>
       <c r="C80" s="3" t="s">
         <v>207</v>
@@ -10833,7 +10858,7 @@
         <v>216</v>
       </c>
       <c r="I80" s="4"/>
-      <c r="J80" s="24"/>
+      <c r="J80" s="20"/>
       <c r="K80" s="16"/>
       <c r="L80" s="3" t="s">
         <v>207</v>
@@ -10853,7 +10878,7 @@
       <c r="R80" s="4"/>
     </row>
     <row r="81" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B81" s="16" t="s">
@@ -10875,7 +10900,7 @@
         <v>59</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="24" t="s">
+      <c r="J81" s="20" t="s">
         <v>72</v>
       </c>
       <c r="K81" s="16" t="s">
@@ -10899,7 +10924,7 @@
       <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="16"/>
       <c r="C82" s="3" t="s">
         <v>68</v>
@@ -10917,7 +10942,7 @@
         <v>61</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="24"/>
+      <c r="J82" s="20"/>
       <c r="K82" s="16"/>
       <c r="L82" s="3" t="s">
         <v>68</v>
@@ -10937,7 +10962,7 @@
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="16"/>
       <c r="C83" s="3" t="s">
         <v>69</v>
@@ -10955,7 +10980,7 @@
         <v>60</v>
       </c>
       <c r="I83" s="4"/>
-      <c r="J83" s="24"/>
+      <c r="J83" s="20"/>
       <c r="K83" s="16"/>
       <c r="L83" s="3" t="s">
         <v>69</v>
@@ -10975,7 +11000,7 @@
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="16"/>
       <c r="C84" s="3" t="s">
         <v>70</v>
@@ -10993,7 +11018,7 @@
         <v>6</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="24"/>
+      <c r="J84" s="20"/>
       <c r="K84" s="16"/>
       <c r="L84" s="3" t="s">
         <v>70</v>
@@ -11013,7 +11038,7 @@
       <c r="R84" s="4"/>
     </row>
     <row r="85" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="16"/>
       <c r="C85" s="3" t="s">
         <v>71</v>
@@ -11031,7 +11056,7 @@
         <v>62</v>
       </c>
       <c r="I85" s="4"/>
-      <c r="J85" s="24"/>
+      <c r="J85" s="20"/>
       <c r="K85" s="16"/>
       <c r="L85" s="3" t="s">
         <v>71</v>
@@ -11051,7 +11076,7 @@
       <c r="R85" s="4"/>
     </row>
     <row r="86" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="16" t="s">
         <v>131</v>
       </c>
@@ -11071,7 +11096,7 @@
         <v>73</v>
       </c>
       <c r="I86" s="4"/>
-      <c r="J86" s="24"/>
+      <c r="J86" s="20"/>
       <c r="K86" s="16" t="s">
         <v>131</v>
       </c>
@@ -11093,7 +11118,7 @@
       <c r="R86" s="4"/>
     </row>
     <row r="87" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="16"/>
       <c r="C87" s="3" t="s">
         <v>170</v>
@@ -11111,7 +11136,7 @@
         <v>74</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="24"/>
+      <c r="J87" s="20"/>
       <c r="K87" s="16"/>
       <c r="L87" s="3" t="s">
         <v>170</v>
@@ -11131,7 +11156,7 @@
       <c r="R87" s="4"/>
     </row>
     <row r="88" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="16"/>
       <c r="C88" s="3" t="s">
         <v>171</v>
@@ -11149,7 +11174,7 @@
         <v>75</v>
       </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="24"/>
+      <c r="J88" s="20"/>
       <c r="K88" s="16"/>
       <c r="L88" s="3" t="s">
         <v>171</v>
@@ -11169,7 +11194,7 @@
       <c r="R88" s="4"/>
     </row>
     <row r="89" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="16"/>
       <c r="C89" s="3" t="s">
         <v>172</v>
@@ -11187,7 +11212,7 @@
         <v>128</v>
       </c>
       <c r="I89" s="4"/>
-      <c r="J89" s="24"/>
+      <c r="J89" s="20"/>
       <c r="K89" s="16"/>
       <c r="L89" s="3" t="s">
         <v>172</v>
@@ -11207,7 +11232,7 @@
       <c r="R89" s="4"/>
     </row>
     <row r="90" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="16" t="s">
         <v>139</v>
       </c>
@@ -11227,7 +11252,7 @@
         <v>73</v>
       </c>
       <c r="I90" s="4"/>
-      <c r="J90" s="24"/>
+      <c r="J90" s="20"/>
       <c r="K90" s="16" t="s">
         <v>139</v>
       </c>
@@ -11249,7 +11274,7 @@
       <c r="R90" s="4"/>
     </row>
     <row r="91" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="16"/>
       <c r="C91" s="3" t="s">
         <v>166</v>
@@ -11267,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="I91" s="4"/>
-      <c r="J91" s="24"/>
+      <c r="J91" s="20"/>
       <c r="K91" s="16"/>
       <c r="L91" s="3" t="s">
         <v>166</v>
@@ -11287,7 +11312,7 @@
       <c r="R91" s="4"/>
     </row>
     <row r="92" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="16"/>
       <c r="C92" s="3" t="s">
         <v>167</v>
@@ -11305,7 +11330,7 @@
         <v>75</v>
       </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="24"/>
+      <c r="J92" s="20"/>
       <c r="K92" s="16"/>
       <c r="L92" s="3" t="s">
         <v>167</v>
@@ -11325,7 +11350,7 @@
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="16"/>
       <c r="C93" s="3" t="s">
         <v>168</v>
@@ -11343,7 +11368,7 @@
         <v>128</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="24"/>
+      <c r="J93" s="20"/>
       <c r="K93" s="16"/>
       <c r="L93" s="3" t="s">
         <v>168</v>
@@ -11363,7 +11388,7 @@
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="16"/>
       <c r="C94" s="3" t="s">
         <v>200</v>
@@ -11381,7 +11406,7 @@
         <v>201</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="24"/>
+      <c r="J94" s="20"/>
       <c r="K94" s="16"/>
       <c r="L94" s="3" t="s">
         <v>200</v>
@@ -11401,7 +11426,7 @@
       <c r="R94" s="4"/>
     </row>
     <row r="95" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="16" t="s">
         <v>14</v>
       </c>
@@ -11421,7 +11446,7 @@
         <v>245</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="24"/>
+      <c r="J95" s="20"/>
       <c r="K95" s="16" t="s">
         <v>14</v>
       </c>
@@ -11443,7 +11468,7 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="16"/>
       <c r="C96" s="3" t="s">
         <v>240</v>
@@ -11461,7 +11486,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="24"/>
+      <c r="J96" s="20"/>
       <c r="K96" s="16"/>
       <c r="L96" s="3" t="s">
         <v>240</v>
@@ -11481,7 +11506,7 @@
       <c r="R96" s="4"/>
     </row>
     <row r="97" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="16"/>
       <c r="C97" s="3" t="s">
         <v>241</v>
@@ -11499,7 +11524,7 @@
         <v>86</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="24"/>
+      <c r="J97" s="20"/>
       <c r="K97" s="16"/>
       <c r="L97" s="3" t="s">
         <v>241</v>
@@ -11519,7 +11544,7 @@
       <c r="R97" s="4"/>
     </row>
     <row r="98" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="16" t="s">
         <v>49</v>
       </c>
@@ -11539,7 +11564,7 @@
         <v>214</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="24"/>
+      <c r="J98" s="20"/>
       <c r="K98" s="16" t="s">
         <v>49</v>
       </c>
@@ -11561,7 +11586,7 @@
       <c r="R98" s="4"/>
     </row>
     <row r="99" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="16"/>
       <c r="C99" s="3" t="s">
         <v>209</v>
@@ -11579,7 +11604,7 @@
         <v>215</v>
       </c>
       <c r="I99" s="4"/>
-      <c r="J99" s="24"/>
+      <c r="J99" s="20"/>
       <c r="K99" s="16"/>
       <c r="L99" s="3" t="s">
         <v>209</v>
@@ -11599,8 +11624,8 @@
       <c r="R99" s="4"/>
     </row>
     <row r="100" spans="1:18" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="26"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="5" t="s">
         <v>210</v>
       </c>
@@ -11618,8 +11643,8 @@
         <v>216</v>
       </c>
       <c r="I100" s="6"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="26"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="22"/>
       <c r="L100" s="5" t="s">
         <v>210</v>
       </c>
@@ -11640,6 +11665,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A4:A43"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="A59:A80"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A81:A100"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="J44:J58"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J4:J43"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K86:K89"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K36:K40"/>
+    <mergeCell ref="K41:K43"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="K76:K77"/>
@@ -11656,57 +11732,6 @@
     <mergeCell ref="K68:K72"/>
     <mergeCell ref="K78:K80"/>
     <mergeCell ref="J81:J100"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="K86:K89"/>
-    <mergeCell ref="K90:K94"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K36:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="J44:J58"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="J4:J43"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="A59:A80"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A81:A100"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="A44:A58"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A4:A43"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
